--- a/artfynd/A 4916-2019.xlsx
+++ b/artfynd/A 4916-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7142681</v>
+        <v>61608622</v>
       </c>
       <c r="B2" t="n">
         <v>98536</v>
@@ -715,29 +715,27 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fåssjödal, O om Närmovallokarna, Hls</t>
+          <t>Fåssjödal / 1200 m NNV /, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507647.24716666</v>
+        <v>507584.4666024556</v>
       </c>
       <c r="R2" t="n">
-        <v>6895292.222219723</v>
+        <v>6895554.938142448</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -761,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1986-05-09</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -771,12 +769,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1986-05-09</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Detalj. 23 ex inom 6 m2.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,19 +794,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61608622</v>
+        <v>61608623</v>
       </c>
       <c r="B3" t="n">
         <v>98536</v>
@@ -838,7 +841,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -852,13 +855,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507584.4666024556</v>
+        <v>507611.9594038491</v>
       </c>
       <c r="R3" t="n">
-        <v>6895554.938142448</v>
+        <v>6895596.084366795</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -902,7 +905,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Detalj. 23 ex inom 6 m2.</t>
+          <t>Detalj. 100 ex inom ca 15x25 m.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -929,7 +932,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61608623</v>
+        <v>61608621</v>
       </c>
       <c r="B4" t="n">
         <v>98536</v>
@@ -964,7 +967,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -978,13 +981,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507611.9594038491</v>
+        <v>507600.87407211</v>
       </c>
       <c r="R4" t="n">
-        <v>6895596.084366795</v>
+        <v>6895535.833390228</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1028,7 +1031,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Detalj. 100 ex inom ca 15x25 m.</t>
+          <t>Detalj. 4 ex inom 20x20 cm.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1055,7 +1058,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61608621</v>
+        <v>80328825</v>
       </c>
       <c r="B5" t="n">
         <v>98536</v>
@@ -1090,7 +1093,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1098,19 +1101,22 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Fåssjödal / 1200 m NNV /, Hls</t>
+          <t>Fåssjödal, Dellokal 1, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507600.87407211</v>
+        <v>507591.9684585904</v>
       </c>
       <c r="R5" t="n">
-        <v>6895535.833390228</v>
+        <v>6895545.617624774</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1134,27 +1140,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Detalj. 4 ex inom 20x20 cm.</t>
+          <t>Räknat bladrosetter. Samtliga funna är markerade orange provytepinnar.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,80 +1169,81 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>57863965</v>
+        <v>80845690</v>
       </c>
       <c r="B6" t="n">
-        <v>98536</v>
+        <v>88911</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1853</v>
+        <v>256703</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fåssjödal / 900 m NNV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>507613.160658827</v>
+        <v>507549.9660383568</v>
       </c>
       <c r="R6" t="n">
-        <v>6895271.134258922</v>
+        <v>6895510.974693103</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1258,14 +1265,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>Z-Här-0650</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1994-05-04</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1275,7 +1277,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>1994-05-04</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1283,11 +1285,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Koordinat 6897589/1465729. (kopia in i floraväkteri)</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1296,30 +1293,31 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>30-årig, tät sandtallskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80328825</v>
+        <v>80845635</v>
       </c>
       <c r="B7" t="n">
-        <v>98536</v>
+        <v>90665</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1328,53 +1326,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1853</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Fåssjödal, Dellokal 1, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507591.9684585904</v>
+        <v>507628.0006850036</v>
       </c>
       <c r="R7" t="n">
-        <v>6895545.617624774</v>
+        <v>6895532.159676078</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1398,27 +1393,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Räknat bladrosetter. Samtliga funna är markerade orange provytepinnar.</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1427,26 +1417,30 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>30-årig sandtallskog uppe på ås</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80845676</v>
+        <v>80845636</v>
       </c>
       <c r="B8" t="n">
         <v>90653</v>
@@ -1495,10 +1489,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>507644.0015690695</v>
+        <v>507627.9626584956</v>
       </c>
       <c r="R8" t="n">
-        <v>6895280.075288182</v>
+        <v>6895548.966963329</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1554,7 +1548,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>35-årig, tät sandtallskog</t>
+          <t>30-årig sandtallskog uppe på ås</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1572,10 +1566,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80845690</v>
+        <v>80845634</v>
       </c>
       <c r="B9" t="n">
-        <v>88911</v>
+        <v>90653</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1588,21 +1582,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>256703</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1621,10 +1615,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507549.9660383568</v>
+        <v>507615.871673793</v>
       </c>
       <c r="R9" t="n">
-        <v>6895510.974693103</v>
+        <v>6895519.993545696</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1680,7 +1674,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>30-årig, tät sandtallskog</t>
+          <t>30-årig sandtallskog uppe på ås</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1829,10 +1823,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80845674</v>
+        <v>80845688</v>
       </c>
       <c r="B11" t="n">
-        <v>90653</v>
+        <v>90676</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1841,25 +1835,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1878,10 +1872,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507668.8656070646</v>
+        <v>507549.2326781562</v>
       </c>
       <c r="R11" t="n">
-        <v>6895244.179681323</v>
+        <v>6895420.864876978</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1937,7 +1931,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>35-årig, tät sandtallskog</t>
+          <t>30-årig tallskog på åskam</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1955,7 +1949,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80845635</v>
+        <v>80845698</v>
       </c>
       <c r="B12" t="n">
         <v>90665</v>
@@ -2004,10 +1998,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507628.0006850036</v>
+        <v>507551.1677896366</v>
       </c>
       <c r="R12" t="n">
-        <v>6895532.159676078</v>
+        <v>6895391.922033429</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2063,7 +2057,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog uppe på ås</t>
+          <t>30-årig lavrik sandtallskog i sydsluttning av dödisgrop</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2081,10 +2075,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80845688</v>
+        <v>80845697</v>
       </c>
       <c r="B13" t="n">
-        <v>90676</v>
+        <v>89545</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2093,47 +2087,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5966</v>
+        <v>1503</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>507549.2326781562</v>
+        <v>507555.8675991453</v>
       </c>
       <c r="R13" t="n">
-        <v>6895420.864876978</v>
+        <v>6895381.194030454</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2189,7 +2174,15 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>30-årig tallskog på åskam</t>
+          <t>30-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>1 substratenheter # gammal lumpad tallåga</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2207,10 +2200,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80845698</v>
+        <v>80845689</v>
       </c>
       <c r="B14" t="n">
-        <v>90665</v>
+        <v>88901</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2219,25 +2212,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>2051</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2256,10 +2249,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>507551.1677896366</v>
+        <v>507549.2326781562</v>
       </c>
       <c r="R14" t="n">
-        <v>6895391.922033429</v>
+        <v>6895420.864876978</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2315,7 +2308,12 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>30-årig lavrik sandtallskog i sydsluttning av dödisgrop</t>
+          <t>30-årig tallskog på åskam</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>lav, lingon, väggmossa</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2333,10 +2331,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>80845636</v>
+        <v>80845687</v>
       </c>
       <c r="B15" t="n">
-        <v>90653</v>
+        <v>90665</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2349,21 +2347,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2382,10 +2380,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507627.9626584956</v>
+        <v>507559.9595804383</v>
       </c>
       <c r="R15" t="n">
-        <v>6895548.966963329</v>
+        <v>6895433.027977074</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2441,7 +2439,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog uppe på ås</t>
+          <t>30-årig tallskog på åskam</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2459,10 +2457,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>80845697</v>
+        <v>80845673</v>
       </c>
       <c r="B16" t="n">
-        <v>89545</v>
+        <v>90653</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2471,38 +2469,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507555.8675991453</v>
+        <v>507635.0222063187</v>
       </c>
       <c r="R16" t="n">
-        <v>6895381.194030454</v>
+        <v>6895322.07635335</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2558,15 +2565,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>30-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AN16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>1 substratenheter # gammal lumpad tallåga</t>
+          <t>35-årig, tät sandtallskog</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2584,10 +2583,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>80845689</v>
+        <v>7142681</v>
       </c>
       <c r="B17" t="n">
-        <v>88901</v>
+        <v>98536</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2596,50 +2595,52 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2051</v>
+        <v>1853</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal, O om Närmovallokarna, Hls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>507549.2326781562</v>
+        <v>507647.24716666</v>
       </c>
       <c r="R17" t="n">
-        <v>6895420.864876978</v>
+        <v>6895292.222219723</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2663,7 +2664,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>1986-05-09</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2673,7 +2674,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>1986-05-09</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2689,88 +2690,78 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>30-årig tallskog på åskam</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>lav, lingon, väggmossa</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>80845675</v>
+        <v>57863965</v>
       </c>
       <c r="B18" t="n">
-        <v>90647</v>
+        <v>98536</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>1853</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 900 m NNV /, Hls</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>507652.9059137279</v>
+        <v>507613.160658827</v>
       </c>
       <c r="R18" t="n">
-        <v>6895271.224232971</v>
+        <v>6895271.134258922</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2792,9 +2783,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Z-Här-0650</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>1994-05-04</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2804,7 +2800,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>1994-05-04</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2812,6 +2808,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Koordinat 6897589/1465729. (kopia in i floraväkteri)</t>
+        </is>
+      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2820,31 +2821,30 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>35-årig, tät sandtallskog</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr"/>
+          <t>Olle Hedvall</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80845687</v>
+        <v>80845676</v>
       </c>
       <c r="B19" t="n">
-        <v>90665</v>
+        <v>90653</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2857,21 +2857,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507559.9595804383</v>
+        <v>507644.0015690695</v>
       </c>
       <c r="R19" t="n">
-        <v>6895433.027977074</v>
+        <v>6895280.075288182</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>30-årig tallskog på åskam</t>
+          <t>35-årig, tät sandtallskog</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80845705</v>
+        <v>80845674</v>
       </c>
       <c r="B20" t="n">
         <v>90653</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>507650.9137115523</v>
+        <v>507668.8656070646</v>
       </c>
       <c r="R20" t="n">
-        <v>6895324.913784339</v>
+        <v>6895244.179681323</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>40-årig sandtallskog på ås</t>
+          <t>35-årig, tät sandtallskog</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80845673</v>
+        <v>80845675</v>
       </c>
       <c r="B21" t="n">
-        <v>90653</v>
+        <v>90647</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3105,25 +3105,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507635.0222063187</v>
+        <v>507652.9059137279</v>
       </c>
       <c r="R21" t="n">
-        <v>6895322.07635335</v>
+        <v>6895271.224232971</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80845634</v>
+        <v>80845705</v>
       </c>
       <c r="B22" t="n">
         <v>90653</v>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>507615.871673793</v>
+        <v>507650.9137115523</v>
       </c>
       <c r="R22" t="n">
-        <v>6895519.993545696</v>
+        <v>6895324.913784339</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog uppe på ås</t>
+          <t>40-årig sandtallskog på ås</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>

--- a/artfynd/A 4916-2019.xlsx
+++ b/artfynd/A 4916-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61608622</v>
+        <v>7142681</v>
       </c>
       <c r="B2" t="n">
         <v>98536</v>
@@ -715,27 +715,29 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Fåssjödal / 1200 m NNV /, Hls</t>
+          <t>Fåssjödal, O om Närmovallokarna, Hls</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>507584.4666024556</v>
+        <v>507647.24716666</v>
       </c>
       <c r="R2" t="n">
-        <v>6895554.938142448</v>
+        <v>6895292.222219723</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +761,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>1986-05-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,17 +771,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-05-24</t>
+          <t>1986-05-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Detalj. 23 ex inom 6 m2.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,19 +791,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Hanna Wallén</t>
+          <t>Olle Hedvall</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61608623</v>
+        <v>61608622</v>
       </c>
       <c r="B3" t="n">
         <v>98536</v>
@@ -841,7 +838,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -855,13 +852,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>507611.9594038491</v>
+        <v>507584.4666024556</v>
       </c>
       <c r="R3" t="n">
-        <v>6895596.084366795</v>
+        <v>6895554.938142448</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -905,7 +902,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Detalj. 100 ex inom ca 15x25 m.</t>
+          <t>Detalj. 23 ex inom 6 m2.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -932,7 +929,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61608621</v>
+        <v>61608623</v>
       </c>
       <c r="B4" t="n">
         <v>98536</v>
@@ -967,7 +964,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -981,13 +978,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>507600.87407211</v>
+        <v>507611.9594038491</v>
       </c>
       <c r="R4" t="n">
-        <v>6895535.833390228</v>
+        <v>6895596.084366795</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1031,7 +1028,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Detalj. 4 ex inom 20x20 cm.</t>
+          <t>Detalj. 100 ex inom ca 15x25 m.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1058,7 +1055,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80328825</v>
+        <v>61608621</v>
       </c>
       <c r="B5" t="n">
         <v>98536</v>
@@ -1093,7 +1090,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1101,22 +1098,19 @@
           <t>stjälkar/strån/skott</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Fåssjödal, Dellokal 1, Hls</t>
+          <t>Fåssjödal / 1200 m NNV /, Hls</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507591.9684585904</v>
+        <v>507600.87407211</v>
       </c>
       <c r="R5" t="n">
-        <v>6895545.617624774</v>
+        <v>6895535.833390228</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1140,27 +1134,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-10-07</t>
+          <t>2005-05-24</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Räknat bladrosetter. Samtliga funna är markerade orange provytepinnar.</t>
+          <t>Detalj. 4 ex inom 20x20 cm.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1169,81 +1163,80 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Tomas Rydkvist</t>
+          <t>Hanna Wallén</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>80845690</v>
+        <v>57863965</v>
       </c>
       <c r="B6" t="n">
-        <v>88911</v>
+        <v>98536</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>256703</v>
+        <v>1853</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallfingersvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramaria eosanguinea</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>R.H.Petersen</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>mycel</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal / 900 m NNV /, Hls</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>507549.9660383568</v>
+        <v>507613.160658827</v>
       </c>
       <c r="R6" t="n">
-        <v>6895510.974693103</v>
+        <v>6895271.134258922</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1265,9 +1258,14 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Z-Här-0650</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>1994-05-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1277,7 +1275,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>1994-05-04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1285,6 +1283,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Koordinat 6897589/1465729. (kopia in i floraväkteri)</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1293,31 +1296,30 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>30-årig, tät sandtallskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr"/>
+          <t>Olle Hedvall</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>80845635</v>
+        <v>80328825</v>
       </c>
       <c r="B7" t="n">
-        <v>90665</v>
+        <v>98536</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1326,50 +1328,53 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>1853</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Mill.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Fåssjödal, Hls</t>
+          <t>Fåssjödal, Dellokal 1, Hls</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507628.0006850036</v>
+        <v>507591.9684585904</v>
       </c>
       <c r="R7" t="n">
-        <v>6895532.159676078</v>
+        <v>6895545.617624774</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1393,22 +1398,27 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2019-10-08</t>
+          <t>2019-10-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Räknat bladrosetter. Samtliga funna är markerade orange provytepinnar.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1417,30 +1427,26 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>30-årig sandtallskog uppe på ås</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Magnus Andersson</t>
+          <t>Tomas Rydkvist</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80845636</v>
+        <v>80845676</v>
       </c>
       <c r="B8" t="n">
         <v>90653</v>
@@ -1489,10 +1495,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>507627.9626584956</v>
+        <v>507644.0015690695</v>
       </c>
       <c r="R8" t="n">
-        <v>6895548.966963329</v>
+        <v>6895280.075288182</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1548,7 +1554,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog uppe på ås</t>
+          <t>35-årig, tät sandtallskog</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1566,10 +1572,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80845634</v>
+        <v>80845690</v>
       </c>
       <c r="B9" t="n">
-        <v>90653</v>
+        <v>88911</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1582,21 +1588,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>256703</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallfingersvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria eosanguinea</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>R.H.Petersen</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1615,10 +1621,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507615.871673793</v>
+        <v>507549.9660383568</v>
       </c>
       <c r="R9" t="n">
-        <v>6895519.993545696</v>
+        <v>6895510.974693103</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1674,7 +1680,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>30-årig sandtallskog uppe på ås</t>
+          <t>30-årig, tät sandtallskog</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1823,10 +1829,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>80845688</v>
+        <v>80845674</v>
       </c>
       <c r="B11" t="n">
-        <v>90676</v>
+        <v>90653</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1835,25 +1841,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5966</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1872,10 +1878,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507549.2326781562</v>
+        <v>507668.8656070646</v>
       </c>
       <c r="R11" t="n">
-        <v>6895420.864876978</v>
+        <v>6895244.179681323</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1931,7 +1937,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>30-årig tallskog på åskam</t>
+          <t>35-årig, tät sandtallskog</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1949,7 +1955,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>80845698</v>
+        <v>80845635</v>
       </c>
       <c r="B12" t="n">
         <v>90665</v>
@@ -1998,10 +2004,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507551.1677896366</v>
+        <v>507628.0006850036</v>
       </c>
       <c r="R12" t="n">
-        <v>6895391.922033429</v>
+        <v>6895532.159676078</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2057,7 +2063,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>30-årig lavrik sandtallskog i sydsluttning av dödisgrop</t>
+          <t>30-årig sandtallskog uppe på ås</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2075,10 +2081,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>80845697</v>
+        <v>80845688</v>
       </c>
       <c r="B13" t="n">
-        <v>89545</v>
+        <v>90676</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2087,38 +2093,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1503</v>
+        <v>5966</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>507555.8675991453</v>
+        <v>507549.2326781562</v>
       </c>
       <c r="R13" t="n">
-        <v>6895381.194030454</v>
+        <v>6895420.864876978</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2174,15 +2189,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>30-årig, lavrik sandtallskog</t>
-        </is>
-      </c>
-      <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>1 substratenheter # gammal lumpad tallåga</t>
+          <t>30-årig tallskog på åskam</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2200,10 +2207,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>80845689</v>
+        <v>80845698</v>
       </c>
       <c r="B14" t="n">
-        <v>88901</v>
+        <v>90665</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2212,25 +2219,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2051</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rotfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria boreimaxima</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Kytöv. &amp; M.Toivonen</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -2249,10 +2256,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>507549.2326781562</v>
+        <v>507551.1677896366</v>
       </c>
       <c r="R14" t="n">
-        <v>6895420.864876978</v>
+        <v>6895391.922033429</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2308,12 +2315,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>30-årig tallskog på åskam</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>lav, lingon, väggmossa</t>
+          <t>30-årig lavrik sandtallskog i sydsluttning av dödisgrop</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2331,10 +2333,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>80845687</v>
+        <v>80845636</v>
       </c>
       <c r="B15" t="n">
-        <v>90665</v>
+        <v>90653</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2347,21 +2349,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -2380,10 +2382,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507559.9595804383</v>
+        <v>507627.9626584956</v>
       </c>
       <c r="R15" t="n">
-        <v>6895433.027977074</v>
+        <v>6895548.966963329</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2439,7 +2441,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>30-årig tallskog på åskam</t>
+          <t>30-årig sandtallskog uppe på ås</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2457,10 +2459,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>80845673</v>
+        <v>80845697</v>
       </c>
       <c r="B16" t="n">
-        <v>90653</v>
+        <v>89545</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2469,47 +2471,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>mycel</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507635.0222063187</v>
+        <v>507555.8675991453</v>
       </c>
       <c r="R16" t="n">
-        <v>6895322.07635335</v>
+        <v>6895381.194030454</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2565,7 +2558,15 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>35-årig, tät sandtallskog</t>
+          <t>30-årig, lavrik sandtallskog</t>
+        </is>
+      </c>
+      <c r="AN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>1 substratenheter # gammal lumpad tallåga</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2583,10 +2584,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7142681</v>
+        <v>80845689</v>
       </c>
       <c r="B17" t="n">
-        <v>98536</v>
+        <v>88901</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2595,52 +2596,50 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1853</v>
+        <v>2051</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Rotfingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Ramaria boreimaxima</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>Kytöv. &amp; M.Toivonen</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mycel</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Fåssjödal, O om Närmovallokarna, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>507647.24716666</v>
+        <v>507549.2326781562</v>
       </c>
       <c r="R17" t="n">
-        <v>6895292.222219723</v>
+        <v>6895420.864876978</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2664,7 +2663,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1986-05-09</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2674,7 +2673,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>1986-05-09</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2690,78 +2689,88 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>30-årig tallskog på åskam</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>lav, lingon, väggmossa</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>57863965</v>
+        <v>80845675</v>
       </c>
       <c r="B18" t="n">
-        <v>98536</v>
+        <v>90647</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1853</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>mycel</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Fåssjödal / 900 m NNV /, Hls</t>
+          <t>Fåssjödal, Hls</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>507613.160658827</v>
+        <v>507652.9059137279</v>
       </c>
       <c r="R18" t="n">
-        <v>6895271.134258922</v>
+        <v>6895271.224232971</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2783,14 +2792,9 @@
           <t>Ytterhogdal</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>Z-Här-0650</t>
-        </is>
-      </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1994-05-04</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2800,7 +2804,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>1994-05-04</t>
+          <t>2019-10-08</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2808,11 +2812,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Koordinat 6897589/1465729. (kopia in i floraväkteri)</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
@@ -2821,30 +2820,31 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>35-årig, tät sandtallskog</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Magnus Andersson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Olle Hedvall</t>
-        </is>
-      </c>
-      <c r="AY18" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+          <t>Magnus Andersson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>80845676</v>
+        <v>80845687</v>
       </c>
       <c r="B19" t="n">
-        <v>90653</v>
+        <v>90665</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2857,21 +2857,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507644.0015690695</v>
+        <v>507559.9595804383</v>
       </c>
       <c r="R19" t="n">
-        <v>6895280.075288182</v>
+        <v>6895433.027977074</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>35-årig, tät sandtallskog</t>
+          <t>30-årig tallskog på åskam</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr"/>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>80845674</v>
+        <v>80845705</v>
       </c>
       <c r="B20" t="n">
         <v>90653</v>
@@ -3016,10 +3016,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>507668.8656070646</v>
+        <v>507650.9137115523</v>
       </c>
       <c r="R20" t="n">
-        <v>6895244.179681323</v>
+        <v>6895324.913784339</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>35-årig, tät sandtallskog</t>
+          <t>40-årig sandtallskog på ås</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3093,10 +3093,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>80845675</v>
+        <v>80845673</v>
       </c>
       <c r="B21" t="n">
-        <v>90647</v>
+        <v>90653</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3105,25 +3105,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3142,10 +3142,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507652.9059137279</v>
+        <v>507635.0222063187</v>
       </c>
       <c r="R21" t="n">
-        <v>6895271.224232971</v>
+        <v>6895322.07635335</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3219,7 +3219,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>80845705</v>
+        <v>80845634</v>
       </c>
       <c r="B22" t="n">
         <v>90653</v>
@@ -3268,10 +3268,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>507650.9137115523</v>
+        <v>507615.871673793</v>
       </c>
       <c r="R22" t="n">
-        <v>6895324.913784339</v>
+        <v>6895519.993545696</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>40-årig sandtallskog på ås</t>
+          <t>30-årig sandtallskog uppe på ås</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
